--- a/Step3_70.xlsx
+++ b/Step3_70.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D8E901-BD60-447E-BE61-27B672ACFA6F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{661E62C1-BBF5-4BD2-BE31-6E196E8CD12D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5533,7 +5533,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BEA148-E338-42A2-9748-E8571D597ECD}">
-  <dimension ref="A1:C321"/>
+  <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5557,648 +5557,648 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>25621</v>
+        <v>20164</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>25634</v>
+        <v>20237</v>
       </c>
       <c r="B3">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>25647</v>
+        <v>20306</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>25675</v>
+        <v>20331</v>
       </c>
       <c r="B5">
         <v>85</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>25713</v>
+        <v>20386</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>25752</v>
+        <v>20396</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>25821</v>
+        <v>20409</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C8">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>25837</v>
+        <v>20427</v>
       </c>
       <c r="B9">
         <v>72</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>25844</v>
+        <v>20448</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>25893</v>
+        <v>20510</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>25907</v>
+        <v>20522</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>25959</v>
+        <v>20572</v>
       </c>
       <c r="B13">
         <v>72</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>25991</v>
+        <v>20589</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>26007</v>
+        <v>20597</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>26171</v>
+        <v>20637</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C16">
-        <v>164</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>26277</v>
+        <v>20728</v>
       </c>
       <c r="B17">
         <v>71</v>
       </c>
       <c r="C17">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>26291</v>
+        <v>20736</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>26305</v>
+        <v>20771</v>
       </c>
       <c r="B19">
         <v>72</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>26315</v>
+        <v>20800</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>26333</v>
+        <v>20808</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>26349</v>
+        <v>20878</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>26472</v>
+        <v>20891</v>
       </c>
       <c r="B23">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C23">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>26580</v>
+        <v>20915</v>
       </c>
       <c r="B24">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C24">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>26646</v>
+        <v>20947</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C25">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>26738</v>
+        <v>21000</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C26">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26858</v>
+        <v>21066</v>
       </c>
       <c r="B27">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27">
-        <v>120</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26873</v>
+        <v>21086</v>
       </c>
       <c r="B28">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>26950</v>
+        <v>21117</v>
       </c>
       <c r="B29">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C29">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>26969</v>
+        <v>21132</v>
       </c>
       <c r="B30">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>27003</v>
+        <v>21173</v>
       </c>
       <c r="B31">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>27027</v>
+        <v>21225</v>
       </c>
       <c r="B32">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>27043</v>
+        <v>21239</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>27056</v>
+        <v>21299</v>
       </c>
       <c r="B34">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>27082</v>
+        <v>21314</v>
       </c>
       <c r="B35">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>27091</v>
+        <v>21325</v>
       </c>
       <c r="B36">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>27105</v>
+        <v>21351</v>
       </c>
       <c r="B37">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>27114</v>
+        <v>21361</v>
       </c>
       <c r="B38">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>27133</v>
+        <v>21385</v>
       </c>
       <c r="B39">
         <v>80</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>27150</v>
+        <v>21395</v>
       </c>
       <c r="B40">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>27324</v>
+        <v>21428</v>
       </c>
       <c r="B41">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C41">
-        <v>174</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>27347</v>
+        <v>21437</v>
       </c>
       <c r="B42">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>27405</v>
+        <v>21458</v>
       </c>
       <c r="B43">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C43">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>27419</v>
+        <v>21489</v>
       </c>
       <c r="B44">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>27451</v>
+        <v>21535</v>
       </c>
       <c r="B45">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>27503</v>
+        <v>21554</v>
       </c>
       <c r="B46">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C46">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>27670</v>
+        <v>21572</v>
       </c>
       <c r="B47">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="C47">
-        <v>167</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>27708</v>
+        <v>21586</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C48">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>27728</v>
+        <v>21602</v>
       </c>
       <c r="B49">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>27763</v>
+        <v>21615</v>
       </c>
       <c r="B50">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C50">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>27775</v>
+        <v>21624</v>
       </c>
       <c r="B51">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>27791</v>
+        <v>21642</v>
       </c>
       <c r="B52">
         <v>74</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>27808</v>
+        <v>21665</v>
       </c>
       <c r="B53">
         <v>72</v>
       </c>
       <c r="C53">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>27824</v>
+        <v>21681</v>
       </c>
       <c r="B54">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>27840</v>
+        <v>21749</v>
       </c>
       <c r="B55">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C55">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>27872</v>
+        <v>21841</v>
       </c>
       <c r="B56">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C56">
-        <v>25</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>27885</v>
+        <v>21855</v>
       </c>
       <c r="B57">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>28061</v>
+        <v>21865</v>
       </c>
       <c r="B58">
         <v>71</v>
       </c>
       <c r="C58">
-        <v>176</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>28091</v>
+        <v>21879</v>
       </c>
       <c r="B59">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>28104</v>
+        <v>21892</v>
       </c>
       <c r="B60">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60">
         <v>13</v>
@@ -6206,1264 +6206,1264 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>28151</v>
+        <v>21920</v>
       </c>
       <c r="B61">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C61">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>28170</v>
+        <v>21957</v>
       </c>
       <c r="B62">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>28183</v>
+        <v>21972</v>
       </c>
       <c r="B63">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C63">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>28200</v>
+        <v>22002</v>
       </c>
       <c r="B64">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>28218</v>
+        <v>22017</v>
       </c>
       <c r="B65">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>28251</v>
+        <v>22213</v>
       </c>
       <c r="B66">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C66">
-        <v>28</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>28262</v>
+        <v>22223</v>
       </c>
       <c r="B67">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C67">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>28305</v>
+        <v>22249</v>
       </c>
       <c r="B68">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C68">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>28337</v>
+        <v>22259</v>
       </c>
       <c r="B69">
         <v>85</v>
       </c>
       <c r="C69">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>28410</v>
+        <v>22268</v>
       </c>
       <c r="B70">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C70">
-        <v>73</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>28440</v>
+        <v>22298</v>
       </c>
       <c r="B71">
         <v>72</v>
       </c>
       <c r="C71">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>28447</v>
+        <v>22326</v>
       </c>
       <c r="B72">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>28460</v>
+        <v>22347</v>
       </c>
       <c r="B73">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>28468</v>
+        <v>22416</v>
       </c>
       <c r="B74">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>28484</v>
+        <v>22445</v>
       </c>
       <c r="B75">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>28499</v>
+        <v>22550</v>
       </c>
       <c r="B76">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>28516</v>
+        <v>22585</v>
       </c>
       <c r="B77">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>28528</v>
+        <v>22601</v>
       </c>
       <c r="B78">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>28563</v>
+        <v>22620</v>
       </c>
       <c r="B79">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C79">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>28581</v>
+        <v>22653</v>
       </c>
       <c r="B80">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>28610</v>
+        <v>22673</v>
       </c>
       <c r="B81">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C81">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>28619</v>
+        <v>22711</v>
       </c>
       <c r="B82">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>28650</v>
+        <v>22750</v>
       </c>
       <c r="B83">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C83">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>28694</v>
+        <v>22758</v>
       </c>
       <c r="B84">
         <v>72</v>
       </c>
       <c r="C84">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>28721</v>
+        <v>22772</v>
       </c>
       <c r="B85">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C85">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>28763</v>
+        <v>22790</v>
       </c>
       <c r="B86">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C86">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>28811</v>
+        <v>22827</v>
       </c>
       <c r="B87">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C87">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>28837</v>
+        <v>22854</v>
       </c>
       <c r="B88">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C88">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>28858</v>
+        <v>22900</v>
       </c>
       <c r="B89">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C89">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>28869</v>
+        <v>22931</v>
       </c>
       <c r="B90">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>28880</v>
+        <v>22960</v>
       </c>
       <c r="B91">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>28890</v>
+        <v>22986</v>
       </c>
       <c r="B92">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>28907</v>
+        <v>23003</v>
       </c>
       <c r="B93">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>28928</v>
+        <v>23011</v>
       </c>
       <c r="B94">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C94">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>28938</v>
+        <v>23031</v>
       </c>
       <c r="B95">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>28947</v>
+        <v>23044</v>
       </c>
       <c r="B96">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>29069</v>
+        <v>23076</v>
       </c>
       <c r="B97">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C97">
-        <v>118</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>29081</v>
+        <v>23100</v>
       </c>
       <c r="B98">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C98">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>29175</v>
+        <v>23121</v>
       </c>
       <c r="B99">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C99">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>29185</v>
+        <v>23145</v>
       </c>
       <c r="B100">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>29214</v>
+        <v>23338</v>
       </c>
       <c r="B101">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>29227</v>
+        <v>23369</v>
       </c>
       <c r="B102">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C102">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>29275</v>
+        <v>23385</v>
       </c>
       <c r="B103">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C103">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>29291</v>
+        <v>23401</v>
       </c>
       <c r="B104">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C104">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>29298</v>
+        <v>23412</v>
       </c>
       <c r="B105">
         <v>74</v>
       </c>
       <c r="C105">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>29348</v>
+        <v>23430</v>
       </c>
       <c r="B106">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C106">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>29466</v>
+        <v>23441</v>
       </c>
       <c r="B107">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C107">
-        <v>118</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>29520</v>
+        <v>23453</v>
       </c>
       <c r="B108">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C108">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>29558</v>
+        <v>23462</v>
       </c>
       <c r="B109">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C109">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>29565</v>
+        <v>23506</v>
       </c>
       <c r="B110">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C110">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>29619</v>
+        <v>23524</v>
       </c>
       <c r="B111">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C111">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>29627</v>
+        <v>23543</v>
       </c>
       <c r="B112">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>29660</v>
+        <v>23552</v>
       </c>
       <c r="B113">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C113">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>29680</v>
+        <v>23644</v>
       </c>
       <c r="B114">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C114">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>29690</v>
+        <v>23652</v>
       </c>
       <c r="B115">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>29865</v>
+        <v>23698</v>
       </c>
       <c r="B116">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C116">
-        <v>175</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>29877</v>
+        <v>23725</v>
       </c>
       <c r="B117">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C117">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>29955</v>
+        <v>23751</v>
       </c>
       <c r="B118">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C118">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>29979</v>
+        <v>23767</v>
       </c>
       <c r="B119">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C119">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>30023</v>
+        <v>23784</v>
       </c>
       <c r="B120">
         <v>74</v>
       </c>
       <c r="C120">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>30037</v>
+        <v>23819</v>
       </c>
       <c r="B121">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C121">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>30058</v>
+        <v>23844</v>
       </c>
       <c r="B122">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C122">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>30244</v>
+        <v>23921</v>
       </c>
       <c r="B123">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C123">
-        <v>182</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>30261</v>
+        <v>23932</v>
       </c>
       <c r="B124">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C124">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>30290</v>
+        <v>24018</v>
       </c>
       <c r="B125">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C125">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>30313</v>
+        <v>24027</v>
       </c>
       <c r="B126">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C126">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>30341</v>
+        <v>24040</v>
       </c>
       <c r="B127">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C127">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>30438</v>
+        <v>24073</v>
       </c>
       <c r="B128">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C128">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>30459</v>
+        <v>24110</v>
       </c>
       <c r="B129">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C129">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>30493</v>
+        <v>24117</v>
       </c>
       <c r="B130">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C130">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>30529</v>
+        <v>24134</v>
       </c>
       <c r="B131">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C131">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>30536</v>
+        <v>24154</v>
       </c>
       <c r="B132">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C132">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>30603</v>
+        <v>24167</v>
       </c>
       <c r="B133">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C133">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>30617</v>
+        <v>24230</v>
       </c>
       <c r="B134">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C134">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>30641</v>
+        <v>24294</v>
       </c>
       <c r="B135">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C135">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>30674</v>
+        <v>24380</v>
       </c>
       <c r="B136">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C136">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>30706</v>
+        <v>24390</v>
       </c>
       <c r="B137">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C137">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>30740</v>
+        <v>24414</v>
       </c>
       <c r="B138">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C138">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>30757</v>
+        <v>24489</v>
       </c>
       <c r="B139">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C139">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>30802</v>
+        <v>24497</v>
       </c>
       <c r="B140">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C140">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>30950</v>
+        <v>24514</v>
       </c>
       <c r="B141">
         <v>72</v>
       </c>
       <c r="C141">
-        <v>148</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>30988</v>
+        <v>24584</v>
       </c>
       <c r="B142">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C142">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>31023</v>
+        <v>24611</v>
       </c>
       <c r="B143">
         <v>72</v>
       </c>
       <c r="C143">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>31038</v>
+        <v>24648</v>
       </c>
       <c r="B144">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C144">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>31068</v>
+        <v>24677</v>
       </c>
       <c r="B145">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="C145">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>31097</v>
+        <v>24688</v>
       </c>
       <c r="B146">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C146">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>31143</v>
+        <v>24736</v>
       </c>
       <c r="B147">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C147">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>31198</v>
+        <v>24750</v>
       </c>
       <c r="B148">
         <v>74</v>
       </c>
       <c r="C148">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>31233</v>
+        <v>24763</v>
       </c>
       <c r="B149">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C149">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>31371</v>
+        <v>24788</v>
       </c>
       <c r="B150">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C150">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>31383</v>
+        <v>24818</v>
       </c>
       <c r="B151">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C151">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>31409</v>
+        <v>24828</v>
       </c>
       <c r="B152">
         <v>72</v>
       </c>
       <c r="C152">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>31417</v>
+        <v>24841</v>
       </c>
       <c r="B153">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C153">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>31482</v>
+        <v>24855</v>
       </c>
       <c r="B154">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C154">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>31490</v>
+        <v>24870</v>
       </c>
       <c r="B155">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C155">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>31550</v>
+        <v>24881</v>
       </c>
       <c r="B156">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C156">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>31579</v>
+        <v>24921</v>
       </c>
       <c r="B157">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C157">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>31684</v>
+        <v>24951</v>
       </c>
       <c r="B158">
         <v>72</v>
       </c>
       <c r="C158">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>31699</v>
+        <v>25047</v>
       </c>
       <c r="B159">
         <v>72</v>
       </c>
       <c r="C159">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>31725</v>
+        <v>25070</v>
       </c>
       <c r="B160">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C160">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>31749</v>
+        <v>25114</v>
       </c>
       <c r="B161">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C161">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>31768</v>
+        <v>25161</v>
       </c>
       <c r="B162">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C162">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>31800</v>
+        <v>25177</v>
       </c>
       <c r="B163">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C163">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>31871</v>
+        <v>25195</v>
       </c>
       <c r="B164">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C164">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>31906</v>
+        <v>25212</v>
       </c>
       <c r="B165">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C165">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>32087</v>
+        <v>25227</v>
       </c>
       <c r="B166">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C166">
-        <v>181</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>32132</v>
+        <v>25237</v>
       </c>
       <c r="B167">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C167">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>32155</v>
+        <v>25270</v>
       </c>
       <c r="B168">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C168">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>32193</v>
+        <v>25282</v>
       </c>
       <c r="B169">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C169">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>32232</v>
+        <v>25291</v>
       </c>
       <c r="B170">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C170">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>32250</v>
+        <v>25303</v>
       </c>
       <c r="B171">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C171">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>32380</v>
+        <v>25312</v>
       </c>
       <c r="B172">
         <v>72</v>
       </c>
       <c r="C172">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>32406</v>
+        <v>25333</v>
       </c>
       <c r="B173">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C173">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>32434</v>
+        <v>25366</v>
       </c>
       <c r="B174">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C174">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>32457</v>
+        <v>25389</v>
       </c>
       <c r="B175">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C175">
         <v>23</v>
@@ -7471,659 +7471,659 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>32464</v>
+        <v>25476</v>
       </c>
       <c r="B176">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C176">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>32492</v>
+        <v>25496</v>
       </c>
       <c r="B177">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C177">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>32516</v>
+        <v>25526</v>
       </c>
       <c r="B178">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C178">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>32525</v>
+        <v>25548</v>
       </c>
       <c r="B179">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C179">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>32539</v>
+        <v>25599</v>
       </c>
       <c r="B180">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C180">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>32547</v>
+        <v>25621</v>
       </c>
       <c r="B181">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C181">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>32582</v>
+        <v>25634</v>
       </c>
       <c r="B182">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C182">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>32773</v>
+        <v>25647</v>
       </c>
       <c r="B183">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C183">
-        <v>191</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>32821</v>
+        <v>25675</v>
       </c>
       <c r="B184">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C184">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>32840</v>
+        <v>25713</v>
       </c>
       <c r="B185">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C185">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>32897</v>
+        <v>25752</v>
       </c>
       <c r="B186">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C186">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>32923</v>
+        <v>25821</v>
       </c>
       <c r="B187">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C187">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>32933</v>
+        <v>25837</v>
       </c>
       <c r="B188">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C188">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>32954</v>
+        <v>25844</v>
       </c>
       <c r="B189">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C189">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>33010</v>
+        <v>25893</v>
       </c>
       <c r="B190">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C190">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>33027</v>
+        <v>25907</v>
       </c>
       <c r="B191">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C191">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>33150</v>
+        <v>25959</v>
       </c>
       <c r="B192">
         <v>72</v>
       </c>
       <c r="C192">
-        <v>123</v>
+        <v>52</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>33164</v>
+        <v>25991</v>
       </c>
       <c r="B193">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C193">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>33183</v>
+        <v>26007</v>
       </c>
       <c r="B194">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C194">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>33202</v>
+        <v>26171</v>
       </c>
       <c r="B195">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C195">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>33232</v>
+        <v>26277</v>
       </c>
       <c r="B196">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C196">
-        <v>30</v>
+        <v>106</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>33256</v>
+        <v>26291</v>
       </c>
       <c r="B197">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C197">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>33285</v>
+        <v>26305</v>
       </c>
       <c r="B198">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C198">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>33304</v>
+        <v>26315</v>
       </c>
       <c r="B199">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C199">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>33325</v>
+        <v>26333</v>
       </c>
       <c r="B200">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C200">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>33343</v>
+        <v>26349</v>
       </c>
       <c r="B201">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C201">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>33358</v>
+        <v>26472</v>
       </c>
       <c r="B202">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C202">
-        <v>9</v>
+        <v>123</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>33449</v>
+        <v>26580</v>
       </c>
       <c r="B203">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C203">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>33465</v>
+        <v>26646</v>
       </c>
       <c r="B204">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C204">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>33572</v>
+        <v>26738</v>
       </c>
       <c r="B205">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C205">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>33586</v>
+        <v>26858</v>
       </c>
       <c r="B206">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C206">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>33594</v>
+        <v>26873</v>
       </c>
       <c r="B207">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C207">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>33627</v>
+        <v>26950</v>
       </c>
       <c r="B208">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C208">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>33680</v>
+        <v>26969</v>
       </c>
       <c r="B209">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C209">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>33874</v>
+        <v>27003</v>
       </c>
       <c r="B210">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C210">
-        <v>194</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>33893</v>
+        <v>27027</v>
       </c>
       <c r="B211">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C211">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>33920</v>
+        <v>27043</v>
       </c>
       <c r="B212">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C212">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>33958</v>
+        <v>27056</v>
       </c>
       <c r="B213">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C213">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>34042</v>
+        <v>27082</v>
       </c>
       <c r="B214">
         <v>80</v>
       </c>
       <c r="C214">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>34059</v>
+        <v>27091</v>
       </c>
       <c r="B215">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C215">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>34076</v>
+        <v>27105</v>
       </c>
       <c r="B216">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C216">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>34221</v>
+        <v>27114</v>
       </c>
       <c r="B217">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C217">
-        <v>138</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>34243</v>
+        <v>27133</v>
       </c>
       <c r="B218">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C218">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>34259</v>
+        <v>27150</v>
       </c>
       <c r="B219">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C219">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>34293</v>
+        <v>27324</v>
       </c>
       <c r="B220">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C220">
-        <v>22</v>
+        <v>174</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>34324</v>
+        <v>27347</v>
       </c>
       <c r="B221">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C221">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>34335</v>
+        <v>27405</v>
       </c>
       <c r="B222">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C222">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>34355</v>
+        <v>27419</v>
       </c>
       <c r="B223">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C223">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>34362</v>
+        <v>27451</v>
       </c>
       <c r="B224">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C224">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>34388</v>
+        <v>27503</v>
       </c>
       <c r="B225">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C225">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>34401</v>
+        <v>27670</v>
       </c>
       <c r="B226">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C226">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>34412</v>
+        <v>27708</v>
       </c>
       <c r="B227">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C227">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>34424</v>
+        <v>27728</v>
       </c>
       <c r="B228">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C228">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>34440</v>
+        <v>27763</v>
       </c>
       <c r="B229">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C229">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>34465</v>
+        <v>27775</v>
       </c>
       <c r="B230">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C230">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>34485</v>
+        <v>27791</v>
       </c>
       <c r="B231">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C231">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>34644</v>
+        <v>27808</v>
       </c>
       <c r="B232">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C232">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>34660</v>
+        <v>27824</v>
       </c>
       <c r="B233">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C233">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>34679</v>
+        <v>27840</v>
       </c>
       <c r="B234">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C234">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>34704</v>
+        <v>27872</v>
       </c>
       <c r="B235">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C235">
         <v>25</v>
@@ -8131,513 +8131,513 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>34730</v>
+        <v>27885</v>
       </c>
       <c r="B236">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C236">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>34741</v>
+        <v>28061</v>
       </c>
       <c r="B237">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C237">
-        <v>11</v>
+        <v>176</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>34754</v>
+        <v>28091</v>
       </c>
       <c r="B238">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C238">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>34793</v>
+        <v>28104</v>
       </c>
       <c r="B239">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C239">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>34808</v>
+        <v>28151</v>
       </c>
       <c r="B240">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C240">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>34895</v>
+        <v>28170</v>
       </c>
       <c r="B241">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C241">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>35083</v>
+        <v>28183</v>
       </c>
       <c r="B242">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C242">
-        <v>188</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>35091</v>
+        <v>28200</v>
       </c>
       <c r="B243">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C243">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>35119</v>
+        <v>28218</v>
       </c>
       <c r="B244">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C244">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>35127</v>
+        <v>28251</v>
       </c>
       <c r="B245">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C245">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>35149</v>
+        <v>28262</v>
       </c>
       <c r="B246">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C246">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>35446</v>
+        <v>28305</v>
       </c>
       <c r="B247">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C247">
-        <v>297</v>
+        <v>43</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>35455</v>
+        <v>28337</v>
       </c>
       <c r="B248">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C248">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>35483</v>
+        <v>28410</v>
       </c>
       <c r="B249">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C249">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>35551</v>
+        <v>28440</v>
       </c>
       <c r="B250">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C250">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>35629</v>
+        <v>28447</v>
       </c>
       <c r="B251">
         <v>74</v>
       </c>
       <c r="C251">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>35702</v>
+        <v>28460</v>
       </c>
       <c r="B252">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C252">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>35971</v>
+        <v>28468</v>
       </c>
       <c r="B253">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C253">
-        <v>269</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>36064</v>
+        <v>28484</v>
       </c>
       <c r="B254">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C254">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>36110</v>
+        <v>28499</v>
       </c>
       <c r="B255">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C255">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>36129</v>
+        <v>28516</v>
       </c>
       <c r="B256">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C256">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>36258</v>
+        <v>28528</v>
       </c>
       <c r="B257">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C257">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>36365</v>
+        <v>28563</v>
       </c>
       <c r="B258">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C258">
-        <v>107</v>
+        <v>35</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>36466</v>
+        <v>28581</v>
       </c>
       <c r="B259">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C259">
-        <v>101</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>36523</v>
+        <v>28610</v>
       </c>
       <c r="B260">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C260">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>36753</v>
+        <v>28619</v>
       </c>
       <c r="B261">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C261">
-        <v>224</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>36865</v>
+        <v>28650</v>
       </c>
       <c r="B262">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C262">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>36877</v>
+        <v>28694</v>
       </c>
       <c r="B263">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C263">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>36932</v>
+        <v>28721</v>
       </c>
       <c r="B264">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C264">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>36948</v>
+        <v>28763</v>
       </c>
       <c r="B265">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C265">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>37189</v>
+        <v>28811</v>
       </c>
       <c r="B266">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C266">
-        <v>241</v>
+        <v>42</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>37288</v>
+        <v>28837</v>
       </c>
       <c r="B267">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C267">
-        <v>98</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>37299</v>
+        <v>28858</v>
       </c>
       <c r="B268">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C268">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>37318</v>
+        <v>28869</v>
       </c>
       <c r="B269">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C269">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>37386</v>
+        <v>28880</v>
       </c>
       <c r="B270">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C270">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>37634</v>
+        <v>28890</v>
       </c>
       <c r="B271">
         <v>74</v>
       </c>
       <c r="C271">
-        <v>248</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>37656</v>
+        <v>28907</v>
       </c>
       <c r="B272">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C272">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>37909</v>
+        <v>28928</v>
       </c>
       <c r="B273">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C273">
-        <v>253</v>
+        <v>21</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>37938</v>
+        <v>28938</v>
       </c>
       <c r="B274">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C274">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>38030</v>
+        <v>28947</v>
       </c>
       <c r="B275">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C275">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>38290</v>
+        <v>29069</v>
       </c>
       <c r="B276">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C276">
-        <v>260</v>
+        <v>118</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>38624</v>
+        <v>29081</v>
       </c>
       <c r="B277">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C277">
-        <v>334</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>38662</v>
+        <v>29175</v>
       </c>
       <c r="B278">
         <v>72</v>
       </c>
       <c r="C278">
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>38753</v>
+        <v>29185</v>
       </c>
       <c r="B279">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C279">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>38765</v>
+        <v>29214</v>
       </c>
       <c r="B280">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C280">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>38790</v>
+        <v>29227</v>
       </c>
       <c r="B281">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C281">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>38833</v>
+        <v>29275</v>
       </c>
       <c r="B282">
         <v>70</v>
@@ -8648,430 +8648,2399 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>39019</v>
+        <v>29291</v>
       </c>
       <c r="B283">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C283">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>39052</v>
+        <v>29298</v>
       </c>
       <c r="B284">
         <v>74</v>
       </c>
       <c r="C284">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>39413</v>
+        <v>29348</v>
       </c>
       <c r="B285">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C285">
-        <v>360</v>
+        <v>50</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>39439</v>
+        <v>29466</v>
       </c>
       <c r="B286">
         <v>76</v>
       </c>
       <c r="C286">
-        <v>26</v>
+        <v>118</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>39456</v>
+        <v>29520</v>
       </c>
       <c r="B287">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C287">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>39477</v>
+        <v>29558</v>
       </c>
       <c r="B288">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C288">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>39539</v>
+        <v>29565</v>
       </c>
       <c r="B289">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C289">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>39678</v>
+        <v>29619</v>
       </c>
       <c r="B290">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C290">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>39797</v>
+        <v>29627</v>
       </c>
       <c r="B291">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C291">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>39810</v>
+        <v>29660</v>
       </c>
       <c r="B292">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C292">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>39883</v>
+        <v>29680</v>
       </c>
       <c r="B293">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C293">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>40157</v>
+        <v>29690</v>
       </c>
       <c r="B294">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C294">
-        <v>274</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>40592</v>
+        <v>29865</v>
       </c>
       <c r="B295">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C295">
-        <v>435</v>
+        <v>175</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>40661</v>
+        <v>29877</v>
       </c>
       <c r="B296">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C296">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>40702</v>
+        <v>29955</v>
       </c>
       <c r="B297">
+        <v>104</v>
+      </c>
+      <c r="C297">
         <v>78</v>
-      </c>
-      <c r="C297">
-        <v>41</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>40742</v>
+        <v>29979</v>
       </c>
       <c r="B298">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C298">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>40925</v>
+        <v>30023</v>
       </c>
       <c r="B299">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C299">
-        <v>183</v>
+        <v>44</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>40971</v>
+        <v>30037</v>
       </c>
       <c r="B300">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C300">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>41202</v>
+        <v>30058</v>
       </c>
       <c r="B301">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C301">
-        <v>231</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>41211</v>
+        <v>30244</v>
       </c>
       <c r="B302">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C302">
-        <v>9</v>
+        <v>182</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>41294</v>
+        <v>30261</v>
       </c>
       <c r="B303">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C303">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>41305</v>
+        <v>30290</v>
       </c>
       <c r="B304">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C304">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>41406</v>
+        <v>30313</v>
       </c>
       <c r="B305">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C305">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>41474</v>
+        <v>30341</v>
       </c>
       <c r="B306">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C306">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>41529</v>
+        <v>30438</v>
       </c>
       <c r="B307">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C307">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>41579</v>
+        <v>30459</v>
       </c>
       <c r="B308">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C308">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>41596</v>
+        <v>30493</v>
       </c>
       <c r="B309">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C309">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>41646</v>
+        <v>30529</v>
       </c>
       <c r="B310">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C310">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>41669</v>
+        <v>30536</v>
       </c>
       <c r="B311">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C311">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>41692</v>
+        <v>30603</v>
       </c>
       <c r="B312">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C312">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>41919</v>
+        <v>30617</v>
       </c>
       <c r="B313">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C313">
-        <v>227</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>41961</v>
+        <v>30641</v>
       </c>
       <c r="B314">
         <v>70</v>
       </c>
       <c r="C314">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>41998</v>
+        <v>30674</v>
       </c>
       <c r="B315">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C315">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>42306</v>
+        <v>30706</v>
       </c>
       <c r="B316">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C316">
-        <v>308</v>
+        <v>32</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>42352</v>
+        <v>30740</v>
       </c>
       <c r="B317">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C317">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>42429</v>
+        <v>30757</v>
       </c>
       <c r="B318">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C318">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>42746</v>
+        <v>30802</v>
       </c>
       <c r="B319">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C319">
-        <v>317</v>
+        <v>45</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>42835</v>
+        <v>30950</v>
       </c>
       <c r="B320">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C320">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
+        <v>30988</v>
+      </c>
+      <c r="B321">
+        <v>78</v>
+      </c>
+      <c r="C321">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>31023</v>
+      </c>
+      <c r="B322">
+        <v>72</v>
+      </c>
+      <c r="C322">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>31038</v>
+      </c>
+      <c r="B323">
+        <v>74</v>
+      </c>
+      <c r="C323">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>31068</v>
+      </c>
+      <c r="B324">
+        <v>76</v>
+      </c>
+      <c r="C324">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>31097</v>
+      </c>
+      <c r="B325">
+        <v>91</v>
+      </c>
+      <c r="C325">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>31143</v>
+      </c>
+      <c r="B326">
+        <v>104</v>
+      </c>
+      <c r="C326">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>31198</v>
+      </c>
+      <c r="B327">
+        <v>74</v>
+      </c>
+      <c r="C327">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>31233</v>
+      </c>
+      <c r="B328">
+        <v>70</v>
+      </c>
+      <c r="C328">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>31371</v>
+      </c>
+      <c r="B329">
+        <v>70</v>
+      </c>
+      <c r="C329">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>31383</v>
+      </c>
+      <c r="B330">
+        <v>89</v>
+      </c>
+      <c r="C330">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>31409</v>
+      </c>
+      <c r="B331">
+        <v>72</v>
+      </c>
+      <c r="C331">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>31417</v>
+      </c>
+      <c r="B332">
+        <v>70</v>
+      </c>
+      <c r="C332">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>31482</v>
+      </c>
+      <c r="B333">
+        <v>74</v>
+      </c>
+      <c r="C333">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>31490</v>
+      </c>
+      <c r="B334">
+        <v>87</v>
+      </c>
+      <c r="C334">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>31550</v>
+      </c>
+      <c r="B335">
+        <v>74</v>
+      </c>
+      <c r="C335">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>31579</v>
+      </c>
+      <c r="B336">
+        <v>115</v>
+      </c>
+      <c r="C336">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>31684</v>
+      </c>
+      <c r="B337">
+        <v>72</v>
+      </c>
+      <c r="C337">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>31699</v>
+      </c>
+      <c r="B338">
+        <v>72</v>
+      </c>
+      <c r="C338">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>31725</v>
+      </c>
+      <c r="B339">
+        <v>76</v>
+      </c>
+      <c r="C339">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>31749</v>
+      </c>
+      <c r="B340">
+        <v>70</v>
+      </c>
+      <c r="C340">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>31768</v>
+      </c>
+      <c r="B341">
+        <v>74</v>
+      </c>
+      <c r="C341">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>31800</v>
+      </c>
+      <c r="B342">
+        <v>74</v>
+      </c>
+      <c r="C342">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>31871</v>
+      </c>
+      <c r="B343">
+        <v>78</v>
+      </c>
+      <c r="C343">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>31906</v>
+      </c>
+      <c r="B344">
+        <v>70</v>
+      </c>
+      <c r="C344">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>32087</v>
+      </c>
+      <c r="B345">
+        <v>70</v>
+      </c>
+      <c r="C345">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>32132</v>
+      </c>
+      <c r="B346">
+        <v>74</v>
+      </c>
+      <c r="C346">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>32155</v>
+      </c>
+      <c r="B347">
+        <v>80</v>
+      </c>
+      <c r="C347">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>32193</v>
+      </c>
+      <c r="B348">
+        <v>74</v>
+      </c>
+      <c r="C348">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>32232</v>
+      </c>
+      <c r="B349">
+        <v>81</v>
+      </c>
+      <c r="C349">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>32250</v>
+      </c>
+      <c r="B350">
+        <v>70</v>
+      </c>
+      <c r="C350">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>32380</v>
+      </c>
+      <c r="B351">
+        <v>72</v>
+      </c>
+      <c r="C351">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>32406</v>
+      </c>
+      <c r="B352">
+        <v>76</v>
+      </c>
+      <c r="C352">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>32434</v>
+      </c>
+      <c r="B353">
+        <v>70</v>
+      </c>
+      <c r="C353">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>32457</v>
+      </c>
+      <c r="B354">
+        <v>91</v>
+      </c>
+      <c r="C354">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>32464</v>
+      </c>
+      <c r="B355">
+        <v>80</v>
+      </c>
+      <c r="C355">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>32492</v>
+      </c>
+      <c r="B356">
+        <v>80</v>
+      </c>
+      <c r="C356">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>32516</v>
+      </c>
+      <c r="B357">
+        <v>100</v>
+      </c>
+      <c r="C357">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>32525</v>
+      </c>
+      <c r="B358">
+        <v>76</v>
+      </c>
+      <c r="C358">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>32539</v>
+      </c>
+      <c r="B359">
+        <v>70</v>
+      </c>
+      <c r="C359">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>32547</v>
+      </c>
+      <c r="B360">
+        <v>74</v>
+      </c>
+      <c r="C360">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>32582</v>
+      </c>
+      <c r="B361">
+        <v>78</v>
+      </c>
+      <c r="C361">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>32773</v>
+      </c>
+      <c r="B362">
+        <v>70</v>
+      </c>
+      <c r="C362">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>32821</v>
+      </c>
+      <c r="B363">
+        <v>76</v>
+      </c>
+      <c r="C363">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>32840</v>
+      </c>
+      <c r="B364">
+        <v>70</v>
+      </c>
+      <c r="C364">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>32897</v>
+      </c>
+      <c r="B365">
+        <v>78</v>
+      </c>
+      <c r="C365">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>32923</v>
+      </c>
+      <c r="B366">
+        <v>78</v>
+      </c>
+      <c r="C366">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>32933</v>
+      </c>
+      <c r="B367">
+        <v>78</v>
+      </c>
+      <c r="C367">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>32954</v>
+      </c>
+      <c r="B368">
+        <v>78</v>
+      </c>
+      <c r="C368">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>33010</v>
+      </c>
+      <c r="B369">
+        <v>74</v>
+      </c>
+      <c r="C369">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>33027</v>
+      </c>
+      <c r="B370">
+        <v>76</v>
+      </c>
+      <c r="C370">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>33150</v>
+      </c>
+      <c r="B371">
+        <v>72</v>
+      </c>
+      <c r="C371">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>33164</v>
+      </c>
+      <c r="B372">
+        <v>70</v>
+      </c>
+      <c r="C372">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>33183</v>
+      </c>
+      <c r="B373">
+        <v>87</v>
+      </c>
+      <c r="C373">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>33202</v>
+      </c>
+      <c r="B374">
+        <v>87</v>
+      </c>
+      <c r="C374">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>33232</v>
+      </c>
+      <c r="B375">
+        <v>74</v>
+      </c>
+      <c r="C375">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>33256</v>
+      </c>
+      <c r="B376">
+        <v>70</v>
+      </c>
+      <c r="C376">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>33285</v>
+      </c>
+      <c r="B377">
+        <v>74</v>
+      </c>
+      <c r="C377">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>33304</v>
+      </c>
+      <c r="B378">
+        <v>80</v>
+      </c>
+      <c r="C378">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>33325</v>
+      </c>
+      <c r="B379">
+        <v>85</v>
+      </c>
+      <c r="C379">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>33343</v>
+      </c>
+      <c r="B380">
+        <v>72</v>
+      </c>
+      <c r="C380">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>33358</v>
+      </c>
+      <c r="B381">
+        <v>74</v>
+      </c>
+      <c r="C381">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>33449</v>
+      </c>
+      <c r="B382">
+        <v>95</v>
+      </c>
+      <c r="C382">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>33465</v>
+      </c>
+      <c r="B383">
+        <v>78</v>
+      </c>
+      <c r="C383">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>33572</v>
+      </c>
+      <c r="B384">
+        <v>96</v>
+      </c>
+      <c r="C384">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>33586</v>
+      </c>
+      <c r="B385">
+        <v>93</v>
+      </c>
+      <c r="C385">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>33594</v>
+      </c>
+      <c r="B386">
+        <v>72</v>
+      </c>
+      <c r="C386">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>33627</v>
+      </c>
+      <c r="B387">
+        <v>74</v>
+      </c>
+      <c r="C387">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>33680</v>
+      </c>
+      <c r="B388">
+        <v>76</v>
+      </c>
+      <c r="C388">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>33874</v>
+      </c>
+      <c r="B389">
+        <v>74</v>
+      </c>
+      <c r="C389">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>33893</v>
+      </c>
+      <c r="B390">
+        <v>70</v>
+      </c>
+      <c r="C390">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>33920</v>
+      </c>
+      <c r="B391">
+        <v>111</v>
+      </c>
+      <c r="C391">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>33958</v>
+      </c>
+      <c r="B392">
+        <v>70</v>
+      </c>
+      <c r="C392">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>34042</v>
+      </c>
+      <c r="B393">
+        <v>80</v>
+      </c>
+      <c r="C393">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>34059</v>
+      </c>
+      <c r="B394">
+        <v>74</v>
+      </c>
+      <c r="C394">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>34076</v>
+      </c>
+      <c r="B395">
+        <v>72</v>
+      </c>
+      <c r="C395">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>34221</v>
+      </c>
+      <c r="B396">
+        <v>83</v>
+      </c>
+      <c r="C396">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>34243</v>
+      </c>
+      <c r="B397">
+        <v>72</v>
+      </c>
+      <c r="C397">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>34259</v>
+      </c>
+      <c r="B398">
+        <v>78</v>
+      </c>
+      <c r="C398">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>34293</v>
+      </c>
+      <c r="B399">
+        <v>102</v>
+      </c>
+      <c r="C399">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>34324</v>
+      </c>
+      <c r="B400">
+        <v>70</v>
+      </c>
+      <c r="C400">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>34335</v>
+      </c>
+      <c r="B401">
+        <v>72</v>
+      </c>
+      <c r="C401">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>34355</v>
+      </c>
+      <c r="B402">
+        <v>80</v>
+      </c>
+      <c r="C402">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>34362</v>
+      </c>
+      <c r="B403">
+        <v>85</v>
+      </c>
+      <c r="C403">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>34388</v>
+      </c>
+      <c r="B404">
+        <v>70</v>
+      </c>
+      <c r="C404">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>34401</v>
+      </c>
+      <c r="B405">
+        <v>78</v>
+      </c>
+      <c r="C405">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>34412</v>
+      </c>
+      <c r="B406">
+        <v>72</v>
+      </c>
+      <c r="C406">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>34424</v>
+      </c>
+      <c r="B407">
+        <v>70</v>
+      </c>
+      <c r="C407">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>34440</v>
+      </c>
+      <c r="B408">
+        <v>89</v>
+      </c>
+      <c r="C408">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>34465</v>
+      </c>
+      <c r="B409">
+        <v>80</v>
+      </c>
+      <c r="C409">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>34485</v>
+      </c>
+      <c r="B410">
+        <v>78</v>
+      </c>
+      <c r="C410">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>34644</v>
+      </c>
+      <c r="B411">
+        <v>78</v>
+      </c>
+      <c r="C411">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>34660</v>
+      </c>
+      <c r="B412">
+        <v>82</v>
+      </c>
+      <c r="C412">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>34679</v>
+      </c>
+      <c r="B413">
+        <v>72</v>
+      </c>
+      <c r="C413">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>34704</v>
+      </c>
+      <c r="B414">
+        <v>83</v>
+      </c>
+      <c r="C414">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>34730</v>
+      </c>
+      <c r="B415">
+        <v>74</v>
+      </c>
+      <c r="C415">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>34741</v>
+      </c>
+      <c r="B416">
+        <v>78</v>
+      </c>
+      <c r="C416">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>34754</v>
+      </c>
+      <c r="B417">
+        <v>72</v>
+      </c>
+      <c r="C417">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>34793</v>
+      </c>
+      <c r="B418">
+        <v>96</v>
+      </c>
+      <c r="C418">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>34808</v>
+      </c>
+      <c r="B419">
+        <v>70</v>
+      </c>
+      <c r="C419">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>34895</v>
+      </c>
+      <c r="B420">
+        <v>76</v>
+      </c>
+      <c r="C420">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>35083</v>
+      </c>
+      <c r="B421">
+        <v>72</v>
+      </c>
+      <c r="C421">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>35091</v>
+      </c>
+      <c r="B422">
+        <v>96</v>
+      </c>
+      <c r="C422">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>35119</v>
+      </c>
+      <c r="B423">
+        <v>80</v>
+      </c>
+      <c r="C423">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>35127</v>
+      </c>
+      <c r="B424">
+        <v>80</v>
+      </c>
+      <c r="C424">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>35149</v>
+      </c>
+      <c r="B425">
+        <v>80</v>
+      </c>
+      <c r="C425">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>35446</v>
+      </c>
+      <c r="B426">
+        <v>70</v>
+      </c>
+      <c r="C426">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>35455</v>
+      </c>
+      <c r="B427">
+        <v>76</v>
+      </c>
+      <c r="C427">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>35483</v>
+      </c>
+      <c r="B428">
+        <v>95</v>
+      </c>
+      <c r="C428">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>35551</v>
+      </c>
+      <c r="B429">
+        <v>82</v>
+      </c>
+      <c r="C429">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>35629</v>
+      </c>
+      <c r="B430">
+        <v>74</v>
+      </c>
+      <c r="C430">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>35702</v>
+      </c>
+      <c r="B431">
+        <v>74</v>
+      </c>
+      <c r="C431">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>35971</v>
+      </c>
+      <c r="B432">
+        <v>70</v>
+      </c>
+      <c r="C432">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>36064</v>
+      </c>
+      <c r="B433">
+        <v>80</v>
+      </c>
+      <c r="C433">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>36110</v>
+      </c>
+      <c r="B434">
+        <v>83</v>
+      </c>
+      <c r="C434">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>36129</v>
+      </c>
+      <c r="B435">
+        <v>76</v>
+      </c>
+      <c r="C435">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>36258</v>
+      </c>
+      <c r="B436">
+        <v>74</v>
+      </c>
+      <c r="C436">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>36365</v>
+      </c>
+      <c r="B437">
+        <v>80</v>
+      </c>
+      <c r="C437">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>36466</v>
+      </c>
+      <c r="B438">
+        <v>72</v>
+      </c>
+      <c r="C438">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>36523</v>
+      </c>
+      <c r="B439">
+        <v>70</v>
+      </c>
+      <c r="C439">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>36753</v>
+      </c>
+      <c r="B440">
+        <v>89</v>
+      </c>
+      <c r="C440">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>36865</v>
+      </c>
+      <c r="B441">
+        <v>70</v>
+      </c>
+      <c r="C441">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>36877</v>
+      </c>
+      <c r="B442">
+        <v>74</v>
+      </c>
+      <c r="C442">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>36932</v>
+      </c>
+      <c r="B443">
+        <v>93</v>
+      </c>
+      <c r="C443">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>36948</v>
+      </c>
+      <c r="B444">
+        <v>82</v>
+      </c>
+      <c r="C444">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>37189</v>
+      </c>
+      <c r="B445">
+        <v>82</v>
+      </c>
+      <c r="C445">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>37288</v>
+      </c>
+      <c r="B446">
+        <v>98</v>
+      </c>
+      <c r="C446">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>37299</v>
+      </c>
+      <c r="B447">
+        <v>70</v>
+      </c>
+      <c r="C447">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>37318</v>
+      </c>
+      <c r="B448">
+        <v>80</v>
+      </c>
+      <c r="C448">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>37386</v>
+      </c>
+      <c r="B449">
+        <v>76</v>
+      </c>
+      <c r="C449">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>37634</v>
+      </c>
+      <c r="B450">
+        <v>74</v>
+      </c>
+      <c r="C450">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>37656</v>
+      </c>
+      <c r="B451">
+        <v>82</v>
+      </c>
+      <c r="C451">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>37909</v>
+      </c>
+      <c r="B452">
+        <v>80</v>
+      </c>
+      <c r="C452">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>37938</v>
+      </c>
+      <c r="B453">
+        <v>78</v>
+      </c>
+      <c r="C453">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>38030</v>
+      </c>
+      <c r="B454">
+        <v>76</v>
+      </c>
+      <c r="C454">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>38290</v>
+      </c>
+      <c r="B455">
+        <v>72</v>
+      </c>
+      <c r="C455">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>38624</v>
+      </c>
+      <c r="B456">
+        <v>70</v>
+      </c>
+      <c r="C456">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>38662</v>
+      </c>
+      <c r="B457">
+        <v>72</v>
+      </c>
+      <c r="C457">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>38753</v>
+      </c>
+      <c r="B458">
+        <v>72</v>
+      </c>
+      <c r="C458">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>38765</v>
+      </c>
+      <c r="B459">
+        <v>98</v>
+      </c>
+      <c r="C459">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>38790</v>
+      </c>
+      <c r="B460">
+        <v>74</v>
+      </c>
+      <c r="C460">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>38833</v>
+      </c>
+      <c r="B461">
+        <v>70</v>
+      </c>
+      <c r="C461">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>39019</v>
+      </c>
+      <c r="B462">
+        <v>70</v>
+      </c>
+      <c r="C462">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>39052</v>
+      </c>
+      <c r="B463">
+        <v>74</v>
+      </c>
+      <c r="C463">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>39413</v>
+      </c>
+      <c r="B464">
+        <v>70</v>
+      </c>
+      <c r="C464">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>39439</v>
+      </c>
+      <c r="B465">
+        <v>76</v>
+      </c>
+      <c r="C465">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>39456</v>
+      </c>
+      <c r="B466">
+        <v>85</v>
+      </c>
+      <c r="C466">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>39477</v>
+      </c>
+      <c r="B467">
+        <v>91</v>
+      </c>
+      <c r="C467">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>39539</v>
+      </c>
+      <c r="B468">
+        <v>72</v>
+      </c>
+      <c r="C468">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>39678</v>
+      </c>
+      <c r="B469">
+        <v>98</v>
+      </c>
+      <c r="C469">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>39797</v>
+      </c>
+      <c r="B470">
+        <v>72</v>
+      </c>
+      <c r="C470">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>39810</v>
+      </c>
+      <c r="B471">
+        <v>96</v>
+      </c>
+      <c r="C471">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>39883</v>
+      </c>
+      <c r="B472">
+        <v>76</v>
+      </c>
+      <c r="C472">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>40157</v>
+      </c>
+      <c r="B473">
+        <v>72</v>
+      </c>
+      <c r="C473">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>40592</v>
+      </c>
+      <c r="B474">
+        <v>70</v>
+      </c>
+      <c r="C474">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>40661</v>
+      </c>
+      <c r="B475">
+        <v>91</v>
+      </c>
+      <c r="C475">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>40702</v>
+      </c>
+      <c r="B476">
+        <v>78</v>
+      </c>
+      <c r="C476">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>40742</v>
+      </c>
+      <c r="B477">
+        <v>70</v>
+      </c>
+      <c r="C477">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>40925</v>
+      </c>
+      <c r="B478">
+        <v>80</v>
+      </c>
+      <c r="C478">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>40971</v>
+      </c>
+      <c r="B479">
+        <v>95</v>
+      </c>
+      <c r="C479">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>41202</v>
+      </c>
+      <c r="B480">
+        <v>72</v>
+      </c>
+      <c r="C480">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>41211</v>
+      </c>
+      <c r="B481">
+        <v>76</v>
+      </c>
+      <c r="C481">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>41294</v>
+      </c>
+      <c r="B482">
+        <v>82</v>
+      </c>
+      <c r="C482">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>41305</v>
+      </c>
+      <c r="B483">
+        <v>80</v>
+      </c>
+      <c r="C483">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>41406</v>
+      </c>
+      <c r="B484">
+        <v>70</v>
+      </c>
+      <c r="C484">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>41474</v>
+      </c>
+      <c r="B485">
+        <v>72</v>
+      </c>
+      <c r="C485">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>41529</v>
+      </c>
+      <c r="B486">
+        <v>78</v>
+      </c>
+      <c r="C486">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B487">
+        <v>82</v>
+      </c>
+      <c r="C487">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>41596</v>
+      </c>
+      <c r="B488">
+        <v>74</v>
+      </c>
+      <c r="C488">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B489">
+        <v>72</v>
+      </c>
+      <c r="C489">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>41669</v>
+      </c>
+      <c r="B490">
+        <v>70</v>
+      </c>
+      <c r="C490">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>41692</v>
+      </c>
+      <c r="B491">
+        <v>74</v>
+      </c>
+      <c r="C491">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>41919</v>
+      </c>
+      <c r="B492">
+        <v>70</v>
+      </c>
+      <c r="C492">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>41961</v>
+      </c>
+      <c r="B493">
+        <v>70</v>
+      </c>
+      <c r="C493">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>41998</v>
+      </c>
+      <c r="B494">
+        <v>78</v>
+      </c>
+      <c r="C494">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>42306</v>
+      </c>
+      <c r="B495">
+        <v>76</v>
+      </c>
+      <c r="C495">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>42352</v>
+      </c>
+      <c r="B496">
+        <v>72</v>
+      </c>
+      <c r="C496">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B497">
+        <v>76</v>
+      </c>
+      <c r="C497">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>42746</v>
+      </c>
+      <c r="B498">
+        <v>82</v>
+      </c>
+      <c r="C498">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>42835</v>
+      </c>
+      <c r="B499">
+        <v>70</v>
+      </c>
+      <c r="C499">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
         <v>43023</v>
       </c>
-      <c r="B321">
+      <c r="B500">
         <v>76</v>
       </c>
-      <c r="C321">
+      <c r="C500">
         <v>188</v>
       </c>
     </row>
